--- a/medicine/Enfance/Prix_Alvine-Bélisle/Prix_Alvine-Bélisle.xlsx
+++ b/medicine/Enfance/Prix_Alvine-Bélisle/Prix_Alvine-Bélisle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Alvine-B%C3%A9lisle</t>
+          <t>Prix_Alvine-Bélisle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix Alvine-Bélisle est un prix littéraire destiné à souligner le meilleur livre pour enfants en langue française au Canada. Originellement décerné par la Canadian Library Association (en) (CLA) au meilleur livre publié au cours de l'année en français ou en anglais (CLA Book of Children Award), ce prix est renommé le prix Alvine Bélisle, du nom d'une pionnière de la bibliothèque scolaire et de la littérature jeunesse au Canada[1].
+Le prix Alvine-Bélisle est un prix littéraire destiné à souligner le meilleur livre pour enfants en langue française au Canada. Originellement décerné par la Canadian Library Association (en) (CLA) au meilleur livre publié au cours de l'année en français ou en anglais (CLA Book of Children Award), ce prix est renommé le prix Alvine Bélisle, du nom d'une pionnière de la bibliothèque scolaire et de la littérature jeunesse au Canada.
 Depuis 1974, l'Association pour l'avancement des sciences et des techniques de la documentation (ASTED) a pris la responsabilité du secteur francophone pour l'attribution de ce prix, l'Association des bibliothécaires du Québec (ABQLA) ayant assumé la responsabilité pour le secteur anglophone pendant un certain temps.
 Le prix a longtemps été remis pendant le Salon du livre de Montréal, puis au Congrès des milieux documentaires de 2010 à 2015. Le prix est remis au Congrès des professionnels de l'information (CPI) depuis 2016.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Alvine-B%C3%A9lisle</t>
+          <t>Prix_Alvine-Bélisle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe une catégorie consacrée à ce sujet : Lauréat du prix Alvine-Bélisle.
@@ -559,14 +573,14 @@
 2013 - François Gravel, Hò
 2014 - Marianne Dubuc, Le Lion et l’Oiseau
 2015 - Patrick Doyon et André Marois, Le Voleur de sandwichs
-2016 - Rogé, Hochelaga mon quartier[2]
-2017 - Fanny Britt et Isabelle Arsenault, Louis parmi les spectres[3]
-2018 - Amélie Dumoulin, Fé verte[4]
-2019 - Jonathan Bécotte, Maman veut partir[5]
-2020 - Jean-Christophe Réhel, Peigner le feu[6]
-2021 - Jacques Goldstyn, Le tricot[7]
-2022 - Carole Tremblay, Élodie Duhameau, La guerre des bébés[8]
-2023 - Paul Tom, Mélanie Baillargé, Seuls[8]</t>
+2016 - Rogé, Hochelaga mon quartier
+2017 - Fanny Britt et Isabelle Arsenault, Louis parmi les spectres
+2018 - Amélie Dumoulin, Fé verte
+2019 - Jonathan Bécotte, Maman veut partir
+2020 - Jean-Christophe Réhel, Peigner le feu
+2021 - Jacques Goldstyn, Le tricot
+2022 - Carole Tremblay, Élodie Duhameau, La guerre des bébés
+2023 - Paul Tom, Mélanie Baillargé, Seuls</t>
         </is>
       </c>
     </row>
